--- a/Temp.xlsx
+++ b/Temp.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Downloads\s\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="19">
   <si>
     <t>热水</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,6 +95,10 @@
   </si>
   <si>
     <t>2024年1月30日抄表时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025年1月30日抄表时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -225,12 +229,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -299,7 +309,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -369,6 +379,18 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -390,13 +412,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -685,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:H36"/>
+  <dimension ref="B5:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -703,14 +731,14 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="25"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="29"/>
     </row>
     <row r="6" spans="2:8" s="3" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
@@ -797,70 +825,70 @@
       </c>
     </row>
     <row r="10" spans="2:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
       <c r="G10" s="8">
         <f>SUM(G7:G9)</f>
         <v>108.8</v>
       </c>
     </row>
-    <row r="11" spans="2:8" s="32" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="2:8" s="32" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:8" s="34" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="2:8" s="34" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
     </row>
     <row r="14" spans="2:8" s="13" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="29" t="s">
+      <c r="C14" s="32"/>
+      <c r="D14" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29" t="s">
+      <c r="E14" s="33"/>
+      <c r="F14" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="29"/>
+      <c r="G14" s="33"/>
     </row>
     <row r="15" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="30">
+      <c r="B15" s="35">
         <v>450</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30">
+      <c r="C15" s="35"/>
+      <c r="D15" s="35">
         <v>450</v>
       </c>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30">
+      <c r="E15" s="35"/>
+      <c r="F15" s="35">
         <v>450</v>
       </c>
-      <c r="G15" s="30"/>
+      <c r="G15" s="35"/>
       <c r="H15" s="14">
         <f>SUM(B15:G15)</f>
         <v>1350</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
       <c r="G16" s="12">
         <f>B15+D15+F15</f>
         <v>1350</v>
@@ -873,14 +901,14 @@
       </c>
     </row>
     <row r="23" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="25"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="29"/>
     </row>
     <row r="24" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="B24" s="16"/>
@@ -967,13 +995,13 @@
       </c>
     </row>
     <row r="28" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
       <c r="G28" s="8">
         <f>SUM(G25:G27)</f>
         <v>212.8</v>
@@ -986,14 +1014,14 @@
       </c>
     </row>
     <row r="30" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="25"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="29"/>
     </row>
     <row r="31" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="B31" s="20"/>
@@ -1080,13 +1108,13 @@
       </c>
     </row>
     <row r="35" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
       <c r="G35" s="8">
         <f>SUM(G32:G34)</f>
         <v>263.2</v>
@@ -1098,23 +1126,132 @@
         <v>1613.2</v>
       </c>
     </row>
+    <row r="37" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="B37" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="29"/>
+    </row>
+    <row r="38" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="B38" s="24"/>
+      <c r="C38" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="B39" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="11">
+        <v>142</v>
+      </c>
+      <c r="D39" s="36">
+        <v>142</v>
+      </c>
+      <c r="E39" s="11">
+        <f>D39-C39</f>
+        <v>0</v>
+      </c>
+      <c r="F39" s="11">
+        <v>4.8</v>
+      </c>
+      <c r="G39" s="11">
+        <f>F39*E39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="B40" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="10">
+        <v>44</v>
+      </c>
+      <c r="D40" s="37">
+        <v>44</v>
+      </c>
+      <c r="E40" s="10">
+        <f>D40-C40</f>
+        <v>0</v>
+      </c>
+      <c r="F40" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="G40" s="10">
+        <f>F40*E40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="B41" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="25">
+        <v>497</v>
+      </c>
+      <c r="D41" s="38">
+        <v>497</v>
+      </c>
+      <c r="E41" s="25">
+        <f>D41-C41</f>
+        <v>0</v>
+      </c>
+      <c r="F41" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="G41" s="25">
+        <f>F41*E41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="B42" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="8">
+        <f>SUM(G39:G41)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="17">
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="A11:XFD12"/>
     <mergeCell ref="B30:G30"/>
     <mergeCell ref="B35:F35"/>
     <mergeCell ref="B23:G23"/>
     <mergeCell ref="B28:F28"/>
     <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="A11:XFD12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Temp.xlsx
+++ b/Temp.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Downloads\s\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
   <si>
     <t>热水</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,10 +95,6 @@
   </si>
   <si>
     <t>2024年1月30日抄表时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025年1月30日抄表时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -229,18 +225,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -309,7 +299,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -379,6 +369,18 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -386,45 +388,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -713,10 +685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:H42"/>
+  <dimension ref="B5:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -731,14 +703,14 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="29"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="25"/>
     </row>
     <row r="6" spans="2:8" s="3" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
@@ -825,70 +797,70 @@
       </c>
     </row>
     <row r="10" spans="2:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
       <c r="G10" s="8">
         <f>SUM(G7:G9)</f>
         <v>108.8</v>
       </c>
     </row>
-    <row r="11" spans="2:8" s="34" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="2:8" s="34" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:8" s="32" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="2:8" s="32" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
     </row>
     <row r="14" spans="2:8" s="13" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="33" t="s">
+      <c r="C14" s="28"/>
+      <c r="D14" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33" t="s">
+      <c r="E14" s="29"/>
+      <c r="F14" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="33"/>
+      <c r="G14" s="29"/>
     </row>
     <row r="15" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="35">
+      <c r="B15" s="30">
         <v>450</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35">
+      <c r="C15" s="30"/>
+      <c r="D15" s="30">
         <v>450</v>
       </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35">
+      <c r="E15" s="30"/>
+      <c r="F15" s="30">
         <v>450</v>
       </c>
-      <c r="G15" s="35"/>
+      <c r="G15" s="30"/>
       <c r="H15" s="14">
         <f>SUM(B15:G15)</f>
         <v>1350</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
       <c r="G16" s="12">
         <f>B15+D15+F15</f>
         <v>1350</v>
@@ -901,14 +873,14 @@
       </c>
     </row>
     <row r="23" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="29"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="25"/>
     </row>
     <row r="24" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="B24" s="16"/>
@@ -995,13 +967,13 @@
       </c>
     </row>
     <row r="28" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
       <c r="G28" s="8">
         <f>SUM(G25:G27)</f>
         <v>212.8</v>
@@ -1014,14 +986,14 @@
       </c>
     </row>
     <row r="30" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="29"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="25"/>
     </row>
     <row r="31" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="B31" s="20"/>
@@ -1108,13 +1080,13 @@
       </c>
     </row>
     <row r="35" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
       <c r="G35" s="8">
         <f>SUM(G32:G34)</f>
         <v>263.2</v>
@@ -1126,132 +1098,23 @@
         <v>1613.2</v>
       </c>
     </row>
-    <row r="37" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B37" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="29"/>
-    </row>
-    <row r="38" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B38" s="24"/>
-      <c r="C38" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B39" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C39" s="11">
-        <v>142</v>
-      </c>
-      <c r="D39" s="36">
-        <v>142</v>
-      </c>
-      <c r="E39" s="11">
-        <f>D39-C39</f>
-        <v>0</v>
-      </c>
-      <c r="F39" s="11">
-        <v>4.8</v>
-      </c>
-      <c r="G39" s="11">
-        <f>F39*E39</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B40" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C40" s="10">
-        <v>44</v>
-      </c>
-      <c r="D40" s="37">
-        <v>44</v>
-      </c>
-      <c r="E40" s="10">
-        <f>D40-C40</f>
-        <v>0</v>
-      </c>
-      <c r="F40" s="10">
-        <v>4.8</v>
-      </c>
-      <c r="G40" s="10">
-        <f>F40*E40</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B41" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="C41" s="25">
-        <v>497</v>
-      </c>
-      <c r="D41" s="38">
-        <v>497</v>
-      </c>
-      <c r="E41" s="25">
-        <f>D41-C41</f>
-        <v>0</v>
-      </c>
-      <c r="F41" s="25">
-        <v>0.8</v>
-      </c>
-      <c r="G41" s="25">
-        <f>F41*E41</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B42" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="8">
-        <f>SUM(G39:G41)</f>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B42:F42"/>
+  <mergeCells count="15">
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B10:F10"/>
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="B13:G13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="F14:G14"/>
-    <mergeCell ref="A11:XFD12"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B10:F10"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="A11:XFD12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
